--- a/labs/metapop/lab-metapop.xlsx
+++ b/labs/metapop/lab-metapop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ExI_Occupancy" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t xml:space="preserve">Exercise I: Occupancy-based metapopulations</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve">N2_meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">Final lambda:</t>
@@ -366,7 +363,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -448,10 +445,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -546,11 +539,11 @@
   </sheetPr>
   <dimension ref="A1:AI54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.89"/>
   </cols>
@@ -2352,7 +2345,7 @@
     <mergeCell ref="T7:AI7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -2368,11 +2361,11 @@
   </sheetPr>
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P12" activeCellId="0" sqref="P12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.55"/>
@@ -2458,7 +2451,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="20" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="I5" s="13" t="n">
         <v>0.05</v>
@@ -2474,7 +2467,7 @@
         <v>0.04</v>
       </c>
       <c r="I6" s="20" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,11 +2498,8 @@
       <c r="D10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>51</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
@@ -2896,8 +2886,8 @@
       <c r="E51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="23" t="s">
-        <v>53</v>
+      <c r="A52" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2908,18 +2898,18 @@
       <c r="A54" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2931,7 +2921,7 @@
     <mergeCell ref="B54:M54"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/labs/metapop/lab-metapop.xlsx
+++ b/labs/metapop/lab-metapop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ExI_Occupancy" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t xml:space="preserve">Exercise I: Occupancy-based metapopulations</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">psi16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answer to part c</t>
   </si>
   <si>
     <t xml:space="preserve">Exercise II (Part A): Abundance-based metapopulations</t>
@@ -206,10 +203,10 @@
     <t xml:space="preserve">N2_meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Final lambda:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answer to part d</t>
+    <t xml:space="preserve">Part c - Final lambda:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Answer to part 3</t>
   </si>
 </sst>
 </file>
@@ -294,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -319,13 +316,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -363,7 +353,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,18 +379,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,7 +426,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -645,11 +623,11 @@
   </sheetPr>
   <dimension ref="A1:AI1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.89"/>
   </cols>
@@ -2405,26 +2383,7 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="9"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
@@ -2448,11 +2407,11 @@
   </sheetPr>
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.55"/>
@@ -2467,55 +2426,55 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="C3" s="14" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="G4" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="19.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="G4" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
@@ -2523,77 +2482,77 @@
       <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="10" t="s">
+      <c r="A5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="20" t="n">
+      <c r="H5" s="17" t="n">
         <v>0.95</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="11" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="17"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="10" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="11" t="n">
         <v>0.04</v>
       </c>
-      <c r="I6" s="20" t="n">
+      <c r="I6" s="17" t="n">
         <v>0.96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -2964,7 +2923,7 @@
       <c r="E50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="n">
+      <c r="A51" s="18" t="n">
         <v>40</v>
       </c>
       <c r="B51" s="6"/>
@@ -2973,8 +2932,8 @@
       <c r="E51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22" t="s">
-        <v>51</v>
+      <c r="A52" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2983,20 +2942,20 @@
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
